--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1596,9 +1596,6 @@
     <t>Observation.dataAbsentReason.coding.code</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason.coding.display</t>
   </si>
   <si>
@@ -1760,12 +1757,11 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation</t>
-  </si>
-  <si>
-    <t>Dispositif utilisé pour l'observation
-Si la mesure a été faite par un objet connecté (Profil PhdDevice) 
-=&gt;cette référence est obligatoire</t>
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
+Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -10679,7 +10675,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>122</v>
@@ -10694,7 +10690,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10801,7 +10797,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -11039,7 +11035,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>122</v>
@@ -11054,7 +11050,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11161,7 +11157,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11281,7 +11277,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11341,9 +11337,7 @@
       <c r="M74" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>303</v>
       </c>
@@ -11403,7 +11397,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11429,10 +11423,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11463,9 +11457,7 @@
       <c r="M75" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N75" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>312</v>
       </c>
@@ -11525,7 +11517,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11551,10 +11543,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11647,7 +11639,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11673,10 +11665,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11769,7 +11761,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11795,14 +11787,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11824,16 +11816,16 @@
         <v>252</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11862,7 +11854,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11880,7 +11872,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11898,27 +11890,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP78" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11941,19 +11933,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12002,7 +11994,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12023,10 +12015,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12037,10 +12029,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12066,13 +12058,13 @@
         <v>252</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12101,11 +12093,11 @@
         <v>163</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12122,7 +12114,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12140,27 +12132,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>541</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12186,16 +12178,16 @@
         <v>252</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12223,11 +12215,11 @@
         <v>163</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12244,7 +12236,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12265,10 +12257,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12279,10 +12271,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12305,16 +12297,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12364,7 +12356,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12382,27 +12374,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>559</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12425,16 +12417,16 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12484,7 +12476,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12502,27 +12494,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>568</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12545,19 +12537,19 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12606,7 +12598,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12618,19 +12610,19 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AK84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12641,10 +12633,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12759,10 +12751,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12879,14 +12871,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12908,10 +12900,10 @@
         <v>114</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>117</v>
@@ -12966,7 +12958,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13001,10 +12993,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13027,13 +13019,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13084,7 +13076,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13093,7 +13085,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13105,10 +13097,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13119,10 +13111,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13145,13 +13137,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13202,7 +13194,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13211,7 +13203,7 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13223,10 +13215,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13237,10 +13229,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13266,16 +13258,16 @@
         <v>252</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13303,11 +13295,11 @@
         <v>177</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13324,7 +13316,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13342,13 +13334,13 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AM90" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AN90" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13359,10 +13351,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13388,16 +13380,16 @@
         <v>252</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13425,11 +13417,11 @@
         <v>244</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13446,7 +13438,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13464,13 +13456,13 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AM91" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AN91" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13481,10 +13473,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13599,10 +13591,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13693,7 +13685,7 @@
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>122</v>
@@ -13708,7 +13700,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13719,10 +13711,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13815,7 +13807,7 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13841,10 +13833,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13959,10 +13951,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14053,7 +14045,7 @@
         <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>122</v>
@@ -14068,7 +14060,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14079,10 +14071,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14175,7 +14167,7 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14201,10 +14193,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14295,7 +14287,7 @@
         <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>105</v>
@@ -14321,10 +14313,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14355,9 +14347,7 @@
       <c r="M99" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>303</v>
       </c>
@@ -14417,7 +14407,7 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14443,10 +14433,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14477,9 +14467,7 @@
       <c r="M100" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N100" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>312</v>
       </c>
@@ -14539,7 +14527,7 @@
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14565,10 +14553,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14661,7 +14649,7 @@
         <v>93</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14687,10 +14675,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14783,7 +14771,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14809,10 +14797,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14835,17 +14823,17 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14894,7 +14882,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14918,7 +14906,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14929,10 +14917,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14958,10 +14946,10 @@
         <v>107</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15012,7 +15000,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15033,10 +15021,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15047,10 +15035,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15073,16 +15061,16 @@
         <v>94</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15132,7 +15120,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15153,10 +15141,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15167,10 +15155,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15193,16 +15181,16 @@
         <v>94</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15252,7 +15240,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15273,10 +15261,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15287,10 +15275,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15313,19 +15301,19 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15374,7 +15362,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15386,19 +15374,19 @@
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15409,10 +15397,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15527,10 +15515,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15647,14 +15635,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15676,10 +15664,10 @@
         <v>114</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>117</v>
@@ -15734,7 +15722,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15769,10 +15757,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15798,16 +15786,16 @@
         <v>252</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15856,7 +15844,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>93</v>
@@ -15874,7 +15862,7 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>345</v>
@@ -15891,10 +15879,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15917,16 +15905,16 @@
         <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>432</v>
@@ -15957,37 +15945,37 @@
         <v>244</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="Z112" t="s" s="2">
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -15996,7 +15984,7 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>437</v>
@@ -16013,10 +16001,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16042,13 +16030,13 @@
         <v>252</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>496</v>
@@ -16100,7 +16088,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16109,7 +16097,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16135,14 +16123,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16164,16 +16152,16 @@
         <v>252</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16201,10 +16189,10 @@
         <v>155</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16222,7 +16210,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16240,27 +16228,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AM114" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP114" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16286,16 +16274,16 @@
         <v>83</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>680</v>
-      </c>
       <c r="N115" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16344,7 +16332,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16365,10 +16353,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.code</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.display</t>
@@ -10675,7 +10678,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>122</v>
@@ -10690,7 +10693,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10797,7 +10800,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -11035,7 +11038,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>122</v>
@@ -11050,7 +11053,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11157,7 +11160,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11277,7 +11280,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11337,7 +11340,9 @@
       <c r="M74" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>303</v>
       </c>
@@ -11397,7 +11402,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11423,10 +11428,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11457,7 +11462,9 @@
       <c r="M75" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>312</v>
       </c>
@@ -11517,7 +11524,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11543,10 +11550,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11639,7 +11646,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11665,10 +11672,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11761,7 +11768,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11787,14 +11794,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11816,16 +11823,16 @@
         <v>252</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11854,7 +11861,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11872,7 +11879,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11890,27 +11897,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11933,19 +11940,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11994,7 +12001,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12015,10 +12022,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12029,10 +12036,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12058,13 +12065,13 @@
         <v>252</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12093,10 +12100,10 @@
         <v>163</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12114,7 +12121,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12132,27 +12139,27 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12178,16 +12185,16 @@
         <v>252</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12215,10 +12222,10 @@
         <v>163</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12236,7 +12243,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12257,10 +12264,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12271,10 +12278,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12297,16 +12304,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12356,7 +12363,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12374,27 +12381,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12417,16 +12424,16 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12476,7 +12483,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12494,27 +12501,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12537,19 +12544,19 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12598,7 +12605,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12610,7 +12617,7 @@
         <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12619,10 +12626,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12633,10 +12640,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12751,10 +12758,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12871,14 +12878,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12900,10 +12907,10 @@
         <v>114</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>117</v>
@@ -12958,7 +12965,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12993,10 +13000,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13019,13 +13026,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13076,7 +13083,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13085,7 +13092,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -13097,10 +13104,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13111,10 +13118,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13137,13 +13144,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13194,7 +13201,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13203,7 +13210,7 @@
         <v>93</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13215,10 +13222,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13229,10 +13236,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13258,16 +13265,16 @@
         <v>252</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13295,10 +13302,10 @@
         <v>177</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13316,7 +13323,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13334,13 +13341,13 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13351,10 +13358,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13380,16 +13387,16 @@
         <v>252</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13417,10 +13424,10 @@
         <v>244</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13438,7 +13445,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13456,13 +13463,13 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13473,10 +13480,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13591,10 +13598,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13685,7 +13692,7 @@
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>122</v>
@@ -13700,7 +13707,7 @@
         <v>82</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13711,10 +13718,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13807,7 +13814,7 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13833,10 +13840,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13951,10 +13958,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14045,7 +14052,7 @@
         <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>122</v>
@@ -14060,7 +14067,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14071,10 +14078,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14167,7 +14174,7 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14193,10 +14200,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14287,7 +14294,7 @@
         <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>105</v>
@@ -14313,10 +14320,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14347,7 +14354,9 @@
       <c r="M99" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>303</v>
       </c>
@@ -14407,7 +14416,7 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14433,10 +14442,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14467,7 +14476,9 @@
       <c r="M100" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>312</v>
       </c>
@@ -14527,7 +14538,7 @@
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14553,10 +14564,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14649,7 +14660,7 @@
         <v>93</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14675,10 +14686,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14771,7 +14782,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14797,10 +14808,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14823,17 +14834,17 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14882,7 +14893,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14906,7 +14917,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14917,10 +14928,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14946,10 +14957,10 @@
         <v>107</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15000,7 +15011,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15021,10 +15032,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15035,10 +15046,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15061,16 +15072,16 @@
         <v>94</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15120,7 +15131,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15141,10 +15152,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15155,10 +15166,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15181,16 +15192,16 @@
         <v>94</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15240,7 +15251,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15261,10 +15272,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15275,10 +15286,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15301,19 +15312,19 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15362,7 +15373,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15374,7 +15385,7 @@
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15383,10 +15394,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15397,10 +15408,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15515,10 +15526,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15635,14 +15646,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15664,10 +15675,10 @@
         <v>114</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>117</v>
@@ -15722,7 +15733,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15757,10 +15768,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15786,16 +15797,16 @@
         <v>252</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15844,7 +15855,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>93</v>
@@ -15862,7 +15873,7 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>345</v>
@@ -15879,10 +15890,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15905,16 +15916,16 @@
         <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>432</v>
@@ -15945,10 +15956,10 @@
         <v>244</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15966,7 +15977,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15975,7 +15986,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -15984,7 +15995,7 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>437</v>
@@ -16001,10 +16012,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16030,13 +16041,13 @@
         <v>252</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>496</v>
@@ -16088,7 +16099,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16097,7 +16108,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16123,14 +16134,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16152,16 +16163,16 @@
         <v>252</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16189,28 +16200,28 @@
         <v>155</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16228,27 +16239,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16274,16 +16285,16 @@
         <v>83</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16332,7 +16343,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16353,10 +16364,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -659,923 +659,923 @@
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
   </si>
   <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.text</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Body Mass Index (BMI)</t>
+  </si>
+  <si>
+    <t>Body Mass Index (BMI).</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
+  </si>
+  <si>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
+  </si>
+  <si>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode</t>
+  </si>
+  <si>
+    <t>BMICode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>39156-5</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BMICode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded responses from the common UCUM units for vital signs value set.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-2</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason.extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>vital-signs</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.text</t>
-  </si>
-  <si>
-    <t>Observation.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test</t>
-  </si>
-  <si>
-    <t>Body Mass Index (BMI)</t>
-  </si>
-  <si>
-    <t>Body Mass Index (BMI).</t>
-  </si>
-  <si>
-    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
-  </si>
-  <si>
-    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
-  </si>
-  <si>
-    <t>This identifies the vital sign result type.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode</t>
-  </si>
-  <si>
-    <t>BMICode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>39156-5</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:BMICode.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Often just a dateTime for Vital Signs</t>
-  </si>
-  <si>
-    <t>Often just a dateTime for Vital Signs.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vs-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>obs-7
-vs-2</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
-    <t>Observation.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
-  </si>
-  <si>
-    <t>Observation.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
-    <t>Observation.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
-  </si>
-  <si>
-    <t>Observation.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
-  </si>
-  <si>
-    <t>Observation.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded responses from the common UCUM units for vital signs value set.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>kg/m2</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>obs-6
-vs-2</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason.id</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason.extension</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding</t>
@@ -1917,43 +1917,10 @@
     <t>Need to be able to identify the target population for proper interpretation.</t>
   </si>
   <si>
-    <t>JDV_J148-ReferenceRangeAppliesTo-CISIS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J148-ReferenceRangeAppliesTo-CISIS/FHIR/JDV-J148-ReferenceRangeAppliesTo-CISIS</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.text</t>
+    <t>Codes identifying the population the reference range applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2456,7 +2423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:AP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2465,8 +2432,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.09375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2490,7 +2457,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="112.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4766,7 +4733,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>122</v>
@@ -4792,10 +4759,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4821,16 +4788,16 @@
         <v>114</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4879,7 +4846,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4914,10 +4881,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4940,17 +4907,17 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4999,7 +4966,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5014,19 +4981,19 @@
         <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -5034,14 +5001,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5060,17 +5027,17 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5119,7 +5086,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5134,16 +5101,16 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5154,14 +5121,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5180,16 +5147,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5239,7 +5206,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5254,16 +5221,16 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5274,10 +5241,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5303,16 +5270,16 @@
         <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5337,11 +5304,11 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5359,7 +5326,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>93</v>
@@ -5374,19 +5341,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5394,10 +5361,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5420,19 +5387,19 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5460,16 +5427,16 @@
         <v>177</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
@@ -5479,7 +5446,7 @@
         <v>120</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5503,10 +5470,10 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -5514,13 +5481,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>82</v>
@@ -5542,19 +5509,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5582,11 +5549,11 @@
         <v>177</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5603,7 +5570,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5627,10 +5594,10 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5638,10 +5605,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5756,10 +5723,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5876,10 +5843,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5905,16 +5872,16 @@
         <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5963,7 +5930,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5984,10 +5951,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5998,10 +5965,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6116,10 +6083,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6236,10 +6203,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6265,65 +6232,65 @@
         <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6344,10 +6311,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6358,10 +6325,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6387,13 +6354,13 @@
         <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6443,7 +6410,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6464,10 +6431,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6478,10 +6445,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6507,63 +6474,63 @@
         <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6584,10 +6551,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6598,10 +6565,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6627,14 +6594,14 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6683,7 +6650,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6704,10 +6671,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6718,10 +6685,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6744,19 +6711,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6805,7 +6772,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6826,10 +6793,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6840,10 +6807,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6869,16 +6836,16 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6927,7 +6894,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6948,10 +6915,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6962,14 +6929,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6988,19 +6955,19 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7028,11 +6995,11 @@
         <v>155</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -7049,7 +7016,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -7064,30 +7031,30 @@
         <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7202,10 +7169,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7322,10 +7289,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7351,16 +7318,16 @@
         <v>151</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7397,7 +7364,7 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -7407,7 +7374,7 @@
         <v>120</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7428,10 +7395,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7442,13 +7409,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
@@ -7473,16 +7440,16 @@
         <v>151</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7531,7 +7498,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7552,10 +7519,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7566,10 +7533,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7684,10 +7651,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7804,10 +7771,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7833,23 +7800,23 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7891,7 +7858,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7912,10 +7879,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7926,10 +7893,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7955,13 +7922,13 @@
         <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8011,7 +7978,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8032,10 +7999,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8046,10 +8013,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8075,21 +8042,21 @@
         <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>82</v>
@@ -8131,7 +8098,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8152,10 +8119,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8166,10 +8133,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8195,14 +8162,14 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8251,7 +8218,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8272,10 +8239,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8286,10 +8253,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8312,19 +8279,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8373,7 +8340,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8394,10 +8361,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8408,10 +8375,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8437,16 +8404,16 @@
         <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8495,7 +8462,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8516,10 +8483,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8530,10 +8497,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8556,19 +8523,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8617,7 +8584,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8632,19 +8599,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8652,10 +8619,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8678,16 +8645,16 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8737,7 +8704,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8758,13 +8725,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8772,14 +8739,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8798,19 +8765,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8859,7 +8826,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8874,19 +8841,19 @@
         <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8894,14 +8861,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8920,19 +8887,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8981,7 +8948,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8990,25 +8957,25 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -9016,10 +8983,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9045,13 +9012,13 @@
         <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9101,7 +9068,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9122,13 +9089,13 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9136,10 +9103,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9162,17 +9129,17 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9221,7 +9188,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9236,19 +9203,19 @@
         <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9256,10 +9223,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9282,19 +9249,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9331,26 +9298,26 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9359,30 +9326,30 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>82</v>
@@ -9404,19 +9371,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9465,7 +9432,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9474,7 +9441,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9483,27 +9450,27 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9618,10 +9585,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9738,10 +9705,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9764,19 +9731,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9825,7 +9792,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9846,10 +9813,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9860,10 +9827,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9889,65 +9856,65 @@
         <v>173</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="P62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q62" t="s" s="2">
+      <c r="R62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="R62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Z62" t="s" s="2">
+      <c r="AA62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9968,10 +9935,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9982,10 +9949,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10011,14 +9978,14 @@
         <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10067,7 +10034,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10088,10 +10055,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10102,10 +10069,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10131,72 +10098,72 @@
         <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF64" t="s" s="2">
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10208,10 +10175,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10222,10 +10189,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10251,65 +10218,65 @@
         <v>173</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10330,10 +10297,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10344,10 +10311,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10370,19 +10337,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10410,37 +10377,37 @@
         <v>155</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10455,7 +10422,7 @@
         <v>196</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10466,10 +10433,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10584,10 +10551,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10678,7 +10645,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>122</v>
@@ -10733,16 +10700,16 @@
         <v>151</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10791,7 +10758,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10800,7 +10767,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10812,10 +10779,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -11038,7 +11005,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>122</v>
@@ -11093,16 +11060,16 @@
         <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11151,7 +11118,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11160,7 +11127,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11172,10 +11139,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11215,13 +11182,13 @@
         <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11271,7 +11238,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11280,7 +11247,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11292,10 +11259,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11335,16 +11302,16 @@
         <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>509</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11393,7 +11360,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11402,7 +11369,7 @@
         <v>93</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>105</v>
@@ -11414,10 +11381,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11457,16 +11424,16 @@
         <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11515,7 +11482,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11524,7 +11491,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11536,10 +11503,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11576,19 +11543,19 @@
         <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11637,7 +11604,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11646,7 +11613,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11658,10 +11625,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11701,16 +11668,16 @@
         <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11759,7 +11726,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11768,7 +11735,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>206</v>
+        <v>502</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11780,10 +11747,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11820,7 +11787,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>515</v>
@@ -12062,7 +12029,7 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>533</v>
@@ -12182,7 +12149,7 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>543</v>
@@ -12916,7 +12883,7 @@
         <v>117</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13262,7 +13229,7 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>597</v>
@@ -13384,7 +13351,7 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>606</v>
@@ -13421,7 +13388,7 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="Y91" t="s" s="2">
         <v>610</v>
@@ -13506,16 +13473,18 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>107</v>
+        <v>613</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>108</v>
+        <v>614</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>109</v>
+        <v>615</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13563,7 +13532,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>110</v>
+        <v>612</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13575,7 +13544,7 @@
         <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13587,7 +13556,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>111</v>
+        <v>617</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13598,21 +13567,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13624,17 +13593,15 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>115</v>
+        <v>619</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13671,31 +13638,31 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>121</v>
+        <v>618</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13704,10 +13671,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>196</v>
+        <v>621</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13718,10 +13685,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13744,20 +13711,18 @@
         <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>151</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>270</v>
+        <v>624</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13805,7 +13770,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>274</v>
+        <v>622</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13814,7 +13779,7 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13826,10 +13791,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>275</v>
+        <v>627</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>276</v>
+        <v>628</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13840,10 +13805,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13854,7 +13819,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13863,18 +13828,20 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>107</v>
+        <v>630</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>108</v>
+        <v>631</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13923,19 +13890,19 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>110</v>
+        <v>629</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -13944,10 +13911,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>111</v>
+        <v>634</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13958,14 +13925,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13975,27 +13942,29 @@
         <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>114</v>
+        <v>570</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>115</v>
+        <v>636</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>116</v>
+        <v>636</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14031,19 +14000,19 @@
         <v>82</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>121</v>
+        <v>635</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14052,10 +14021,10 @@
         <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>122</v>
+        <v>639</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -14064,10 +14033,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>82</v>
+        <v>640</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>196</v>
+        <v>641</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14078,10 +14047,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14089,7 +14058,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>93</v>
@@ -14101,23 +14070,19 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14165,7 +14130,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14174,10 +14139,10 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14186,10 +14151,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14200,21 +14165,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14223,19 +14188,19 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14285,19 +14250,19 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14306,10 +14271,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14320,45 +14285,45 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>301</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>302</v>
+        <v>583</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>509</v>
+        <v>117</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14407,19 +14372,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>305</v>
+        <v>584</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14428,10 +14393,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14442,10 +14407,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14453,13 +14418,13 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>82</v>
@@ -14468,19 +14433,19 @@
         <v>94</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>310</v>
+        <v>646</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>311</v>
+        <v>647</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>509</v>
+        <v>648</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>312</v>
+        <v>649</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14505,13 +14470,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14529,16 +14494,16 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>313</v>
+        <v>645</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14547,16 +14512,16 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14564,10 +14529,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14581,7 +14546,7 @@
         <v>93</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>82</v>
@@ -14590,19 +14555,19 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>318</v>
+        <v>652</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>320</v>
+        <v>654</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>321</v>
+        <v>655</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14627,13 +14592,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>82</v>
+        <v>656</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>82</v>
+        <v>657</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14651,7 +14616,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>323</v>
+        <v>651</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14660,7 +14625,7 @@
         <v>93</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>206</v>
+        <v>658</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14669,27 +14634,27 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>82</v>
+        <v>659</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>325</v>
+        <v>437</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14703,28 +14668,28 @@
         <v>93</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>328</v>
+        <v>661</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>329</v>
+        <v>662</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>330</v>
+        <v>663</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>331</v>
+        <v>495</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14749,13 +14714,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14773,7 +14738,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>332</v>
+        <v>660</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14782,7 +14747,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>206</v>
+        <v>664</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14794,10 +14759,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>333</v>
+        <v>196</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>334</v>
+        <v>499</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14808,21 +14773,21 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
@@ -14834,17 +14799,19 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>624</v>
+        <v>251</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>625</v>
+        <v>515</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O103" t="s" s="2">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14869,13 +14836,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14893,13 +14860,13 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>82</v>
@@ -14911,27 +14878,27 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>628</v>
+        <v>522</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>629</v>
+        <v>667</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>629</v>
+        <v>667</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14942,7 +14909,7 @@
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14954,16 +14921,20 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>630</v>
+        <v>668</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15011,13 +14982,13 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>629</v>
+        <v>667</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>82</v>
@@ -15032,1352 +15003,20 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP115" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP115">
+  <autoFilter ref="A1:AP104">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16387,7 +15026,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI114">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
